--- a/_static/global/binaryrankings/workers_rank_re.xlsx
+++ b/_static/global/binaryrankings/workers_rank_re.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -25,6 +25,9 @@
     <t>index</t>
   </si>
   <si>
+    <t>prolificid</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -43,6 +46,78 @@
     <t>re_range</t>
   </si>
   <si>
+    <t>60bfcf5805c5ae12a546f9f3</t>
+  </si>
+  <si>
+    <t>60b45e9961dd412bfb6780f8</t>
+  </si>
+  <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
+    <t>60bd88b8fc436774352f53b9</t>
+  </si>
+  <si>
+    <t>5e96194b0a9fe909389e9f7b</t>
+  </si>
+  <si>
+    <t>60c0e5899d387663c07eb3a4</t>
+  </si>
+  <si>
+    <t>6077db0613ce87b4a62a78f9</t>
+  </si>
+  <si>
+    <t>608b14a312c099ac00b721b6</t>
+  </si>
+  <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
+  </si>
+  <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
+    <t>60b091ed11ccda59e3fc7761</t>
+  </si>
+  <si>
+    <t>601d69a993d94008fb2b25dc</t>
+  </si>
+  <si>
+    <t>60c2341fe95d71ee52c043f0</t>
+  </si>
+  <si>
+    <t>5ff8ad350d084e10f500e48a</t>
+  </si>
+  <si>
+    <t>60db4fde6193c50664c9c478</t>
+  </si>
+  <si>
+    <t>5dd671942b033b5ec8bc97b4</t>
+  </si>
+  <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
+    <t>60b322994d0b901954690036</t>
+  </si>
+  <si>
+    <t>5e2522d6b734b47915f88275</t>
+  </si>
+  <si>
+    <t>6088fc724afd5c008db33e9d</t>
+  </si>
+  <si>
+    <t>6097b95056caf5ebb2720002</t>
+  </si>
+  <si>
+    <t>60b83826821417f8e484a207</t>
+  </si>
+  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -61,12 +136,12 @@
     <t>Nansi</t>
   </si>
   <si>
+    <t>Lori</t>
+  </si>
+  <si>
     <t>Khushi</t>
   </si>
   <si>
-    <t>Lori</t>
-  </si>
-  <si>
     <t>Shaniek</t>
   </si>
   <si>
@@ -85,34 +160,34 @@
     <t>Quinterius</t>
   </si>
   <si>
+    <t>Matthew</t>
+  </si>
+  <si>
     <t>Drew</t>
   </si>
   <si>
-    <t>Matthew</t>
-  </si>
-  <si>
     <t>Edosagbe</t>
   </si>
   <si>
+    <t>Juan</t>
+  </si>
+  <si>
     <t>Jamarii</t>
   </si>
   <si>
-    <t>Juan</t>
+    <t>Brennan</t>
   </si>
   <si>
     <t>Corey</t>
   </si>
   <si>
-    <t>Brennan</t>
-  </si>
-  <si>
     <t>Masuf</t>
   </si>
   <si>
+    <t>Damian</t>
+  </si>
+  <si>
     <t>Eli</t>
-  </si>
-  <si>
-    <t>Damian</t>
   </si>
   <si>
     <t>female</t>
@@ -497,13 +572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +606,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -546,25 +624,28 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2">
-        <v>7.240540192629654</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2">
+        <v>7.300264937320475</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -578,25 +659,28 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3">
-        <v>6.378978103426058</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>6.476670993744667</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -610,25 +694,28 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4">
-        <v>6.143455313863114</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4">
+        <v>6.369967191149581</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -642,25 +729,28 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5">
-        <v>5.419772607443591</v>
-      </c>
-      <c r="H5" t="s">
         <v>37</v>
       </c>
-      <c r="I5">
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5">
+        <v>5.068061057111064</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -674,25 +764,28 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6">
-        <v>5.312796240675778</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6">
+        <v>5.020468814187423</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -706,25 +799,28 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7">
-        <v>4.071991992584385</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7">
+        <v>4.300836668514529</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -735,28 +831,31 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8">
-        <v>1.233832614214271</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8">
+        <v>1.243334033638253</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
-      <c r="J8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -767,28 +866,31 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9">
-        <v>1.002782814522061</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9">
+        <v>1.083571972669488</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="J9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -802,25 +904,28 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10">
-        <v>0.4746561773749075</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10">
+        <v>0.4793892001648432</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -834,25 +939,28 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11">
-        <v>0.4664235049697223</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11">
+        <v>0.4192340444739328</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -866,25 +974,28 @@
         <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12">
-        <v>0.2827895313987391</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12">
+        <v>0.2565399071127668</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -898,25 +1009,28 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13">
-        <v>0.27386664857579</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13">
+        <v>0.2319910726680612</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="J13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -930,25 +1044,28 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14">
-        <v>13.45172621041747</v>
-      </c>
-      <c r="H14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14">
+        <v>13.48524091344236</v>
+      </c>
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="J14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -962,25 +1079,28 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15">
-        <v>8.467383315037575</v>
-      </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15">
+        <v>8.41655457137187</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="J15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -991,28 +1111,31 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16">
-        <v>7.263320786645187</v>
-      </c>
-      <c r="H16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16">
+        <v>7.329976078078919</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16">
         <v>3</v>
       </c>
-      <c r="J16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1023,28 +1146,31 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17">
-        <v>7.045923228846132</v>
-      </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17">
+        <v>7.217939142941571</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17">
         <v>4</v>
       </c>
-      <c r="J17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1058,25 +1184,28 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18">
-        <v>5.285624560074965</v>
-      </c>
-      <c r="H18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18">
+        <v>5.366656653952606</v>
+      </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18">
         <v>5</v>
       </c>
-      <c r="J18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1087,28 +1216,31 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19">
-        <v>5.22667163757618</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19">
+        <v>5.23281095267766</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19">
         <v>6</v>
       </c>
-      <c r="J19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1119,28 +1251,31 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20">
-        <v>5.193444245373518</v>
-      </c>
-      <c r="H20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20">
+        <v>5.099160166839549</v>
+      </c>
+      <c r="I20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20">
         <v>7</v>
       </c>
-      <c r="J20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1151,28 +1286,31 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21">
-        <v>4.163691280357252</v>
-      </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21">
+        <v>4.111111164481627</v>
+      </c>
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21">
         <v>8</v>
       </c>
-      <c r="J21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1183,28 +1321,31 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22">
-        <v>4.093901744365527</v>
-      </c>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22">
+        <v>4.088873157346726</v>
+      </c>
+      <c r="I22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22">
         <v>9</v>
       </c>
-      <c r="J22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1218,25 +1359,28 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23">
-        <v>3.064644559899139</v>
-      </c>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23">
+        <v>3.326168639869025</v>
+      </c>
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23">
         <v>10</v>
       </c>
-      <c r="J23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1247,28 +1391,31 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24">
-        <v>2.350791450174602</v>
-      </c>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24">
+        <v>2.338825072770427</v>
+      </c>
+      <c r="I24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24">
         <v>11</v>
       </c>
-      <c r="J24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1279,25 +1426,28 @@
         <v>11</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25">
-        <v>2.331889986248744</v>
-      </c>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25">
+        <v>2.32406207211523</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25">
         <v>12</v>
       </c>
-      <c r="J25" t="s">
-        <v>41</v>
+      <c r="K25" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/_static/global/binaryrankings/workers_rank_re.xlsx
+++ b/_static/global/binaryrankings/workers_rank_re.xlsx
@@ -70,30 +70,30 @@
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
     <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
-    <t>6036f9b3b1842f8b659b18c7</t>
-  </si>
-  <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
     <t>601d69a993d94008fb2b25dc</t>
   </si>
   <si>
+    <t>5ff8ad350d084e10f500e48a</t>
+  </si>
+  <si>
     <t>60c2341fe95d71ee52c043f0</t>
   </si>
   <si>
-    <t>5ff8ad350d084e10f500e48a</t>
-  </si>
-  <si>
     <t>60db4fde6193c50664c9c478</t>
   </si>
   <si>
@@ -103,21 +103,21 @@
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
+    <t>5e2522d6b734b47915f88275</t>
+  </si>
+  <si>
     <t>60b322994d0b901954690036</t>
   </si>
   <si>
-    <t>5e2522d6b734b47915f88275</t>
-  </si>
-  <si>
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
+    <t>60b83826821417f8e484a207</t>
+  </si>
+  <si>
     <t>6097b95056caf5ebb2720002</t>
   </si>
   <si>
-    <t>60b83826821417f8e484a207</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -142,30 +142,30 @@
     <t>Khushi</t>
   </si>
   <si>
+    <t>Shadaisia</t>
+  </si>
+  <si>
+    <t>Kellie</t>
+  </si>
+  <si>
     <t>Shaniek</t>
   </si>
   <si>
     <t>Bri</t>
   </si>
   <si>
-    <t>Kellie</t>
-  </si>
-  <si>
-    <t>Shadaisia</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
     <t>Quinterius</t>
   </si>
   <si>
+    <t>Drew</t>
+  </si>
+  <si>
     <t>Matthew</t>
   </si>
   <si>
-    <t>Drew</t>
-  </si>
-  <si>
     <t>Edosagbe</t>
   </si>
   <si>
@@ -175,19 +175,19 @@
     <t>Jamarii</t>
   </si>
   <si>
+    <t>Corey</t>
+  </si>
+  <si>
     <t>Brennan</t>
   </si>
   <si>
-    <t>Corey</t>
-  </si>
-  <si>
     <t>Masuf</t>
   </si>
   <si>
+    <t>Eli</t>
+  </si>
+  <si>
     <t>Damian</t>
-  </si>
-  <si>
-    <t>Eli</t>
   </si>
   <si>
     <t>female</t>
@@ -633,7 +633,7 @@
         <v>58</v>
       </c>
       <c r="H2">
-        <v>7.300264937320475</v>
+        <v>7.360079283446961</v>
       </c>
       <c r="I2" t="s">
         <v>60</v>
@@ -668,7 +668,7 @@
         <v>58</v>
       </c>
       <c r="H3">
-        <v>6.476670993744667</v>
+        <v>6.358750456454161</v>
       </c>
       <c r="I3" t="s">
         <v>61</v>
@@ -703,7 +703,7 @@
         <v>58</v>
       </c>
       <c r="H4">
-        <v>6.369967191149581</v>
+        <v>6.017579664918089</v>
       </c>
       <c r="I4" t="s">
         <v>60</v>
@@ -738,7 +738,7 @@
         <v>58</v>
       </c>
       <c r="H5">
-        <v>5.068061057111064</v>
+        <v>5.309718579672998</v>
       </c>
       <c r="I5" t="s">
         <v>62</v>
@@ -773,7 +773,7 @@
         <v>58</v>
       </c>
       <c r="H6">
-        <v>5.020468814187423</v>
+        <v>5.244195657518464</v>
       </c>
       <c r="I6" t="s">
         <v>60</v>
@@ -808,7 +808,7 @@
         <v>58</v>
       </c>
       <c r="H7">
-        <v>4.300836668514529</v>
+        <v>4.045026469112039</v>
       </c>
       <c r="I7" t="s">
         <v>62</v>
@@ -843,7 +843,7 @@
         <v>58</v>
       </c>
       <c r="H8">
-        <v>1.243334033638253</v>
+        <v>1.242073243576292</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
@@ -878,7 +878,7 @@
         <v>58</v>
       </c>
       <c r="H9">
-        <v>1.083571972669488</v>
+        <v>1.014010395470444</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -901,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -913,7 +913,7 @@
         <v>58</v>
       </c>
       <c r="H10">
-        <v>0.4793892001648432</v>
+        <v>0.4834459824271087</v>
       </c>
       <c r="I10" t="s">
         <v>61</v>
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -948,10 +948,10 @@
         <v>58</v>
       </c>
       <c r="H11">
-        <v>0.4192340444739328</v>
+        <v>0.1753989618967279</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -983,10 +983,10 @@
         <v>58</v>
       </c>
       <c r="H12">
-        <v>0.2565399071127668</v>
+        <v>0.1348575153764161</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1018,7 +1018,7 @@
         <v>58</v>
       </c>
       <c r="H13">
-        <v>0.2319910726680612</v>
+        <v>0.1140016948445168</v>
       </c>
       <c r="I13" t="s">
         <v>61</v>
@@ -1053,7 +1053,7 @@
         <v>59</v>
       </c>
       <c r="H14">
-        <v>13.48524091344236</v>
+        <v>13.17322371252606</v>
       </c>
       <c r="I14" t="s">
         <v>61</v>
@@ -1088,7 +1088,7 @@
         <v>59</v>
       </c>
       <c r="H15">
-        <v>8.41655457137187</v>
+        <v>8.25975769155853</v>
       </c>
       <c r="I15" t="s">
         <v>61</v>
@@ -1111,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -1123,7 +1123,7 @@
         <v>59</v>
       </c>
       <c r="H16">
-        <v>7.329976078078919</v>
+        <v>7.198709993617562</v>
       </c>
       <c r="I16" t="s">
         <v>60</v>
@@ -1146,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -1158,7 +1158,7 @@
         <v>59</v>
       </c>
       <c r="H17">
-        <v>7.217939142941571</v>
+        <v>7.013420770724821</v>
       </c>
       <c r="I17" t="s">
         <v>60</v>
@@ -1193,7 +1193,7 @@
         <v>59</v>
       </c>
       <c r="H18">
-        <v>5.366656653952606</v>
+        <v>5.30118687809812</v>
       </c>
       <c r="I18" t="s">
         <v>61</v>
@@ -1228,7 +1228,7 @@
         <v>59</v>
       </c>
       <c r="H19">
-        <v>5.23281095267766</v>
+        <v>5.217927984380697</v>
       </c>
       <c r="I19" t="s">
         <v>63</v>
@@ -1263,7 +1263,7 @@
         <v>59</v>
       </c>
       <c r="H20">
-        <v>5.099160166839549</v>
+        <v>5.022934074744907</v>
       </c>
       <c r="I20" t="s">
         <v>61</v>
@@ -1286,7 +1286,7 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -1298,7 +1298,7 @@
         <v>59</v>
       </c>
       <c r="H21">
-        <v>4.111111164481627</v>
+        <v>4.346124827430741</v>
       </c>
       <c r="I21" t="s">
         <v>60</v>
@@ -1321,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="H22">
-        <v>4.088873157346726</v>
+        <v>4.218944548501164</v>
       </c>
       <c r="I22" t="s">
         <v>60</v>
@@ -1368,7 +1368,7 @@
         <v>59</v>
       </c>
       <c r="H23">
-        <v>3.326168639869025</v>
+        <v>3.102299781206951</v>
       </c>
       <c r="I23" t="s">
         <v>62</v>
@@ -1391,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
         <v>32</v>
@@ -1403,10 +1403,10 @@
         <v>59</v>
       </c>
       <c r="H24">
-        <v>2.338825072770427</v>
+        <v>2.368353172506046</v>
       </c>
       <c r="I24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J24">
         <v>11</v>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -1438,10 +1438,10 @@
         <v>59</v>
       </c>
       <c r="H25">
-        <v>2.32406207211523</v>
+        <v>2.301699192143767</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J25">
         <v>12</v>

--- a/_static/global/binaryrankings/workers_rank_re.xlsx
+++ b/_static/global/binaryrankings/workers_rank_re.xlsx
@@ -49,12 +49,12 @@
     <t>60bfcf5805c5ae12a546f9f3</t>
   </si>
   <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
     <t>60b45e9961dd412bfb6780f8</t>
   </si>
   <si>
-    <t>5c5882fc5bfe7600011197cb</t>
-  </si>
-  <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
@@ -70,15 +70,15 @@
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
     <t>60d5775a99b502eec8cf56b4</t>
   </si>
   <si>
     <t>6036f9b3b1842f8b659b18c7</t>
   </si>
   <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
@@ -88,18 +88,18 @@
     <t>601d69a993d94008fb2b25dc</t>
   </si>
   <si>
+    <t>60c2341fe95d71ee52c043f0</t>
+  </si>
+  <si>
     <t>5ff8ad350d084e10f500e48a</t>
   </si>
   <si>
-    <t>60c2341fe95d71ee52c043f0</t>
+    <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
     <t>60db4fde6193c50664c9c478</t>
   </si>
   <si>
-    <t>5dd671942b033b5ec8bc97b4</t>
-  </si>
-  <si>
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>Giana</t>
   </si>
   <si>
+    <t>Colleen</t>
+  </si>
+  <si>
     <t>Jewel</t>
   </si>
   <si>
-    <t>Colleen</t>
-  </si>
-  <si>
     <t>Annes</t>
   </si>
   <si>
@@ -142,15 +142,15 @@
     <t>Khushi</t>
   </si>
   <si>
+    <t>Shaniek</t>
+  </si>
+  <si>
     <t>Shadaisia</t>
   </si>
   <si>
     <t>Kellie</t>
   </si>
   <si>
-    <t>Shaniek</t>
-  </si>
-  <si>
     <t>Bri</t>
   </si>
   <si>
@@ -160,16 +160,16 @@
     <t>Quinterius</t>
   </si>
   <si>
+    <t>Matthew</t>
+  </si>
+  <si>
     <t>Drew</t>
   </si>
   <si>
-    <t>Matthew</t>
+    <t>Juan</t>
   </si>
   <si>
     <t>Edosagbe</t>
-  </si>
-  <si>
-    <t>Juan</t>
   </si>
   <si>
     <t>Jamarii</t>
@@ -633,7 +633,7 @@
         <v>58</v>
       </c>
       <c r="H2">
-        <v>7.360079283446961</v>
+        <v>7.311265211180753</v>
       </c>
       <c r="I2" t="s">
         <v>60</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -668,10 +668,10 @@
         <v>58</v>
       </c>
       <c r="H3">
-        <v>6.358750456454161</v>
+        <v>6.075952185643782</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -703,10 +703,10 @@
         <v>58</v>
       </c>
       <c r="H4">
-        <v>6.017579664918089</v>
+        <v>6.068676626552405</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -738,7 +738,7 @@
         <v>58</v>
       </c>
       <c r="H5">
-        <v>5.309718579672998</v>
+        <v>5.477047804629725</v>
       </c>
       <c r="I5" t="s">
         <v>62</v>
@@ -773,7 +773,7 @@
         <v>58</v>
       </c>
       <c r="H6">
-        <v>5.244195657518464</v>
+        <v>5.249471932023906</v>
       </c>
       <c r="I6" t="s">
         <v>60</v>
@@ -808,7 +808,7 @@
         <v>58</v>
       </c>
       <c r="H7">
-        <v>4.045026469112039</v>
+        <v>4.260356005502568</v>
       </c>
       <c r="I7" t="s">
         <v>62</v>
@@ -843,7 +843,7 @@
         <v>58</v>
       </c>
       <c r="H8">
-        <v>1.242073243576292</v>
+        <v>1.260598627945096</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
@@ -878,7 +878,7 @@
         <v>58</v>
       </c>
       <c r="H9">
-        <v>1.014010395470444</v>
+        <v>1.185192640848691</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -901,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -913,7 +913,7 @@
         <v>58</v>
       </c>
       <c r="H10">
-        <v>0.4834459824271087</v>
+        <v>0.3346982378612178</v>
       </c>
       <c r="I10" t="s">
         <v>61</v>
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -948,10 +948,10 @@
         <v>58</v>
       </c>
       <c r="H11">
-        <v>0.1753989618967279</v>
+        <v>0.26099946291021</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -983,10 +983,10 @@
         <v>58</v>
       </c>
       <c r="H12">
-        <v>0.1348575153764161</v>
+        <v>0.07698541627100014</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -1018,7 +1018,7 @@
         <v>58</v>
       </c>
       <c r="H13">
-        <v>0.1140016948445168</v>
+        <v>0.04919117767745862</v>
       </c>
       <c r="I13" t="s">
         <v>61</v>
@@ -1053,7 +1053,7 @@
         <v>59</v>
       </c>
       <c r="H14">
-        <v>13.17322371252606</v>
+        <v>13.19982871425305</v>
       </c>
       <c r="I14" t="s">
         <v>61</v>
@@ -1088,7 +1088,7 @@
         <v>59</v>
       </c>
       <c r="H15">
-        <v>8.25975769155853</v>
+        <v>8.081433205567341</v>
       </c>
       <c r="I15" t="s">
         <v>61</v>
@@ -1111,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -1123,7 +1123,7 @@
         <v>59</v>
       </c>
       <c r="H16">
-        <v>7.198709993617562</v>
+        <v>7.048241805590385</v>
       </c>
       <c r="I16" t="s">
         <v>60</v>
@@ -1146,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -1158,7 +1158,7 @@
         <v>59</v>
       </c>
       <c r="H17">
-        <v>7.013420770724821</v>
+        <v>7.000947600168775</v>
       </c>
       <c r="I17" t="s">
         <v>60</v>
@@ -1181,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
@@ -1193,10 +1193,10 @@
         <v>59</v>
       </c>
       <c r="H18">
-        <v>5.30118687809812</v>
+        <v>5.239313832273305</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1216,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -1228,10 +1228,10 @@
         <v>59</v>
       </c>
       <c r="H19">
-        <v>5.217927984380697</v>
+        <v>5.186302527479196</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J19">
         <v>6</v>
@@ -1263,7 +1263,7 @@
         <v>59</v>
       </c>
       <c r="H20">
-        <v>5.022934074744907</v>
+        <v>5.018452747422359</v>
       </c>
       <c r="I20" t="s">
         <v>61</v>
@@ -1298,7 +1298,7 @@
         <v>59</v>
       </c>
       <c r="H21">
-        <v>4.346124827430741</v>
+        <v>4.155549573790759</v>
       </c>
       <c r="I21" t="s">
         <v>60</v>
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="H22">
-        <v>4.218944548501164</v>
+        <v>4.034175108618071</v>
       </c>
       <c r="I22" t="s">
         <v>60</v>
@@ -1368,7 +1368,7 @@
         <v>59</v>
       </c>
       <c r="H23">
-        <v>3.102299781206951</v>
+        <v>3.262000135003892</v>
       </c>
       <c r="I23" t="s">
         <v>62</v>
@@ -1403,7 +1403,7 @@
         <v>59</v>
       </c>
       <c r="H24">
-        <v>2.368353172506046</v>
+        <v>2.30063950806506</v>
       </c>
       <c r="I24" t="s">
         <v>60</v>
@@ -1438,7 +1438,7 @@
         <v>59</v>
       </c>
       <c r="H25">
-        <v>2.301699192143767</v>
+        <v>2.244526961475056</v>
       </c>
       <c r="I25" t="s">
         <v>61</v>

--- a/_static/global/binaryrankings/workers_rank_re.xlsx
+++ b/_static/global/binaryrankings/workers_rank_re.xlsx
@@ -67,12 +67,12 @@
     <t>60863a15760523386e761cfb</t>
   </si>
   <si>
+    <t>60bd88b8fc436774352f53b9</t>
+  </si>
+  <si>
     <t>5c27de12a2b00a00018b2c16</t>
   </si>
   <si>
-    <t>60bd88b8fc436774352f53b9</t>
-  </si>
-  <si>
     <t>60b7cd4be2d4cc6bb252e016</t>
   </si>
   <si>
@@ -139,10 +139,10 @@
     <t>Roshni</t>
   </si>
   <si>
+    <t>Annes</t>
+  </si>
+  <si>
     <t>Ankai</t>
-  </si>
-  <si>
-    <t>Annes</t>
   </si>
   <si>
     <t>Chris</t>
@@ -627,7 +627,7 @@
         <v>58</v>
       </c>
       <c r="H2">
-        <v>11.08336583276651</v>
+        <v>11.12356095231806</v>
       </c>
       <c r="I2" t="s">
         <v>60</v>
@@ -662,7 +662,7 @@
         <v>59</v>
       </c>
       <c r="H3">
-        <v>10.1129397911456</v>
+        <v>10.07657103797102</v>
       </c>
       <c r="I3" t="s">
         <v>60</v>
@@ -697,7 +697,7 @@
         <v>58</v>
       </c>
       <c r="H4">
-        <v>8.12245043575793</v>
+        <v>8.469824362969149</v>
       </c>
       <c r="I4" t="s">
         <v>60</v>
@@ -732,7 +732,7 @@
         <v>58</v>
       </c>
       <c r="H5">
-        <v>8.062732460445222</v>
+        <v>8.252431536799262</v>
       </c>
       <c r="I5" t="s">
         <v>60</v>
@@ -767,7 +767,7 @@
         <v>58</v>
       </c>
       <c r="H6">
-        <v>7.066968789479077</v>
+        <v>7.094657342882389</v>
       </c>
       <c r="I6" t="s">
         <v>60</v>
@@ -802,7 +802,7 @@
         <v>59</v>
       </c>
       <c r="H7">
-        <v>6.406513611900706</v>
+        <v>6.351992923050718</v>
       </c>
       <c r="I7" t="s">
         <v>60</v>
@@ -837,7 +837,7 @@
         <v>58</v>
       </c>
       <c r="H8">
-        <v>6.20631595445323</v>
+        <v>6.111943368614604</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
@@ -860,7 +860,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -869,10 +869,10 @@
         <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9">
-        <v>5.183922735700961</v>
+        <v>5.465857846036377</v>
       </c>
       <c r="I9" t="s">
         <v>60</v>
@@ -895,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -904,10 +904,10 @@
         <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10">
-        <v>5.10986712038344</v>
+        <v>5.411049145544538</v>
       </c>
       <c r="I10" t="s">
         <v>60</v>
@@ -942,7 +942,7 @@
         <v>59</v>
       </c>
       <c r="H11">
-        <v>4.043609040848105</v>
+        <v>4.011565163053068</v>
       </c>
       <c r="I11" t="s">
         <v>60</v>
@@ -977,7 +977,7 @@
         <v>59</v>
       </c>
       <c r="H12">
-        <v>2.406924721161797</v>
+        <v>2.037811163075423</v>
       </c>
       <c r="I12" t="s">
         <v>60</v>
@@ -1012,7 +1012,7 @@
         <v>59</v>
       </c>
       <c r="H13">
-        <v>0.4985343868979834</v>
+        <v>0.2234880371687213</v>
       </c>
       <c r="I13" t="s">
         <v>60</v>
@@ -1047,7 +1047,7 @@
         <v>58</v>
       </c>
       <c r="H14">
-        <v>8.445010300492228</v>
+        <v>8.487299773058886</v>
       </c>
       <c r="I14" t="s">
         <v>61</v>
@@ -1082,7 +1082,7 @@
         <v>58</v>
       </c>
       <c r="H15">
-        <v>8.242180920328682</v>
+        <v>8.17703893189862</v>
       </c>
       <c r="I15" t="s">
         <v>61</v>
@@ -1117,7 +1117,7 @@
         <v>58</v>
       </c>
       <c r="H16">
-        <v>7.315718197973071</v>
+        <v>7.389685286561035</v>
       </c>
       <c r="I16" t="s">
         <v>61</v>
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="H17">
-        <v>7.012016103593139</v>
+        <v>7.23768709675885</v>
       </c>
       <c r="I17" t="s">
         <v>61</v>
@@ -1187,7 +1187,7 @@
         <v>59</v>
       </c>
       <c r="H18">
-        <v>6.280972842109311</v>
+        <v>6.343048961041616</v>
       </c>
       <c r="I18" t="s">
         <v>61</v>
@@ -1222,7 +1222,7 @@
         <v>59</v>
       </c>
       <c r="H19">
-        <v>6.151405377206133</v>
+        <v>6.040248810237871</v>
       </c>
       <c r="I19" t="s">
         <v>61</v>
@@ -1257,7 +1257,7 @@
         <v>59</v>
       </c>
       <c r="H20">
-        <v>5.17695179493024</v>
+        <v>5.132481009527025</v>
       </c>
       <c r="I20" t="s">
         <v>61</v>
@@ -1292,7 +1292,7 @@
         <v>58</v>
       </c>
       <c r="H21">
-        <v>3.196030566073004</v>
+        <v>3.39083832478149</v>
       </c>
       <c r="I21" t="s">
         <v>61</v>
@@ -1327,7 +1327,7 @@
         <v>58</v>
       </c>
       <c r="H22">
-        <v>3.1851649194107</v>
+        <v>3.318523148442117</v>
       </c>
       <c r="I22" t="s">
         <v>61</v>
@@ -1362,7 +1362,7 @@
         <v>59</v>
       </c>
       <c r="H23">
-        <v>2.106973935809581</v>
+        <v>2.176093329063497</v>
       </c>
       <c r="I23" t="s">
         <v>61</v>
@@ -1397,7 +1397,7 @@
         <v>59</v>
       </c>
       <c r="H24">
-        <v>1.425983900189286</v>
+        <v>1.474100674863718</v>
       </c>
       <c r="I24" t="s">
         <v>61</v>
@@ -1432,7 +1432,7 @@
         <v>59</v>
       </c>
       <c r="H25">
-        <v>0.4777009288202284</v>
+        <v>0.05652031328557322</v>
       </c>
       <c r="I25" t="s">
         <v>61</v>

--- a/_static/global/binaryrankings/workers_rank_re.xlsx
+++ b/_static/global/binaryrankings/workers_rank_re.xlsx
@@ -61,18 +61,18 @@
     <t>60186dc2cc1aa8103499603a</t>
   </si>
   <si>
+    <t>60863a15760523386e761cfb</t>
+  </si>
+  <si>
     <t>5697d4ae7183b8000d0fc201</t>
   </si>
   <si>
-    <t>60863a15760523386e761cfb</t>
+    <t>5c27de12a2b00a00018b2c16</t>
   </si>
   <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
-    <t>5c27de12a2b00a00018b2c16</t>
-  </si>
-  <si>
     <t>60b7cd4be2d4cc6bb252e016</t>
   </si>
   <si>
@@ -82,33 +82,33 @@
     <t>60b76ee2219ac1ce25ccea43</t>
   </si>
   <si>
+    <t>6024c18b094ac71dd93f4f5a</t>
+  </si>
+  <si>
     <t>60778ed0fde3e9c3a96f1d11</t>
   </si>
   <si>
-    <t>6024c18b094ac71dd93f4f5a</t>
-  </si>
-  <si>
     <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
     <t>60ba8ba51a5e0a105396888a</t>
   </si>
   <si>
+    <t>5eeaa065c7acf61c4322f6d9</t>
+  </si>
+  <si>
     <t>5f5ea8227fa75676f56f9276</t>
   </si>
   <si>
-    <t>5eeaa065c7acf61c4322f6d9</t>
-  </si>
-  <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>5e0adc8f4cac6834756db412</t>
+  </si>
+  <si>
     <t>5e706891c396cc64388ef760</t>
   </si>
   <si>
-    <t>5e0adc8f4cac6834756db412</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
@@ -133,18 +133,18 @@
     <t>Emily</t>
   </si>
   <si>
+    <t>Roshni</t>
+  </si>
+  <si>
     <t>Tu</t>
   </si>
   <si>
-    <t>Roshni</t>
+    <t>Ankai</t>
   </si>
   <si>
     <t>Annes</t>
   </si>
   <si>
-    <t>Ankai</t>
-  </si>
-  <si>
     <t>Chris</t>
   </si>
   <si>
@@ -154,31 +154,31 @@
     <t>Richie</t>
   </si>
   <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t>Melissa</t>
   </si>
   <si>
-    <t>Katherine</t>
-  </si>
-  <si>
     <t>Valeria</t>
   </si>
   <si>
     <t>Alfredo</t>
   </si>
   <si>
+    <t>Yonifredy</t>
+  </si>
+  <si>
     <t>Carlos</t>
   </si>
   <si>
-    <t>Yonifredy</t>
-  </si>
-  <si>
     <t>Juan</t>
   </si>
   <si>
+    <t>Mary</t>
+  </si>
+  <si>
     <t>Maria</t>
-  </si>
-  <si>
-    <t>Mary</t>
   </si>
   <si>
     <t>Josue</t>
@@ -627,7 +627,7 @@
         <v>58</v>
       </c>
       <c r="H2">
-        <v>11.12356095231806</v>
+        <v>11.45740717551576</v>
       </c>
       <c r="I2" t="s">
         <v>60</v>
@@ -662,7 +662,7 @@
         <v>59</v>
       </c>
       <c r="H3">
-        <v>10.07657103797102</v>
+        <v>10.08421220545006</v>
       </c>
       <c r="I3" t="s">
         <v>60</v>
@@ -697,7 +697,7 @@
         <v>58</v>
       </c>
       <c r="H4">
-        <v>8.469824362969149</v>
+        <v>8.474440037169567</v>
       </c>
       <c r="I4" t="s">
         <v>60</v>
@@ -732,7 +732,7 @@
         <v>58</v>
       </c>
       <c r="H5">
-        <v>8.252431536799262</v>
+        <v>8.469079889133782</v>
       </c>
       <c r="I5" t="s">
         <v>60</v>
@@ -767,7 +767,7 @@
         <v>58</v>
       </c>
       <c r="H6">
-        <v>7.094657342882389</v>
+        <v>7.167398355129854</v>
       </c>
       <c r="I6" t="s">
         <v>60</v>
@@ -790,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -799,10 +799,10 @@
         <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7">
-        <v>6.351992923050718</v>
+        <v>6.194924391488313</v>
       </c>
       <c r="I7" t="s">
         <v>60</v>
@@ -825,7 +825,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -834,10 +834,10 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8">
-        <v>6.111943368614604</v>
+        <v>6.053014121671316</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
@@ -860,7 +860,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -869,10 +869,10 @@
         <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9">
-        <v>5.465857846036377</v>
+        <v>5.405704693608066</v>
       </c>
       <c r="I9" t="s">
         <v>60</v>
@@ -895,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -904,10 +904,10 @@
         <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10">
-        <v>5.411049145544538</v>
+        <v>5.190617474046819</v>
       </c>
       <c r="I10" t="s">
         <v>60</v>
@@ -942,7 +942,7 @@
         <v>59</v>
       </c>
       <c r="H11">
-        <v>4.011565163053068</v>
+        <v>4.0828279198773</v>
       </c>
       <c r="I11" t="s">
         <v>60</v>
@@ -977,7 +977,7 @@
         <v>59</v>
       </c>
       <c r="H12">
-        <v>2.037811163075423</v>
+        <v>2.154970194355574</v>
       </c>
       <c r="I12" t="s">
         <v>60</v>
@@ -1012,7 +1012,7 @@
         <v>59</v>
       </c>
       <c r="H13">
-        <v>0.2234880371687213</v>
+        <v>0.2602112850569155</v>
       </c>
       <c r="I13" t="s">
         <v>60</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -1047,7 +1047,7 @@
         <v>58</v>
       </c>
       <c r="H14">
-        <v>8.487299773058886</v>
+        <v>8.316648944792245</v>
       </c>
       <c r="I14" t="s">
         <v>61</v>
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
@@ -1082,7 +1082,7 @@
         <v>58</v>
       </c>
       <c r="H15">
-        <v>8.17703893189862</v>
+        <v>8.023344841524992</v>
       </c>
       <c r="I15" t="s">
         <v>61</v>
@@ -1117,7 +1117,7 @@
         <v>58</v>
       </c>
       <c r="H16">
-        <v>7.389685286561035</v>
+        <v>7.429443214079729</v>
       </c>
       <c r="I16" t="s">
         <v>61</v>
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="H17">
-        <v>7.23768709675885</v>
+        <v>7.094459853851288</v>
       </c>
       <c r="I17" t="s">
         <v>61</v>
@@ -1175,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
@@ -1187,7 +1187,7 @@
         <v>59</v>
       </c>
       <c r="H18">
-        <v>6.343048961041616</v>
+        <v>6.304187637973969</v>
       </c>
       <c r="I18" t="s">
         <v>61</v>
@@ -1210,7 +1210,7 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -1222,7 +1222,7 @@
         <v>59</v>
       </c>
       <c r="H19">
-        <v>6.040248810237871</v>
+        <v>6.19077550199683</v>
       </c>
       <c r="I19" t="s">
         <v>61</v>
@@ -1257,7 +1257,7 @@
         <v>59</v>
       </c>
       <c r="H20">
-        <v>5.132481009527025</v>
+        <v>5.065205973220809</v>
       </c>
       <c r="I20" t="s">
         <v>61</v>
@@ -1280,7 +1280,7 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -1292,7 +1292,7 @@
         <v>58</v>
       </c>
       <c r="H21">
-        <v>3.39083832478149</v>
+        <v>3.358111939047832</v>
       </c>
       <c r="I21" t="s">
         <v>61</v>
@@ -1315,7 +1315,7 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -1327,7 +1327,7 @@
         <v>58</v>
       </c>
       <c r="H22">
-        <v>3.318523148442117</v>
+        <v>3.344821734808749</v>
       </c>
       <c r="I22" t="s">
         <v>61</v>
@@ -1362,7 +1362,7 @@
         <v>59</v>
       </c>
       <c r="H23">
-        <v>2.176093329063497</v>
+        <v>2.475630392065158</v>
       </c>
       <c r="I23" t="s">
         <v>61</v>
@@ -1397,7 +1397,7 @@
         <v>59</v>
       </c>
       <c r="H24">
-        <v>1.474100674863718</v>
+        <v>1.281029176420817</v>
       </c>
       <c r="I24" t="s">
         <v>61</v>
@@ -1432,7 +1432,7 @@
         <v>59</v>
       </c>
       <c r="H25">
-        <v>0.05652031328557322</v>
+        <v>0.379747773547242</v>
       </c>
       <c r="I25" t="s">
         <v>61</v>

--- a/_static/global/binaryrankings/workers_rank_re.xlsx
+++ b/_static/global/binaryrankings/workers_rank_re.xlsx
@@ -49,12 +49,12 @@
     <t>60bfcf5805c5ae12a546f9f3</t>
   </si>
   <si>
+    <t>60b45e9961dd412bfb6780f8</t>
+  </si>
+  <si>
     <t>5c5882fc5bfe7600011197cb</t>
   </si>
   <si>
-    <t>60b45e9961dd412bfb6780f8</t>
-  </si>
-  <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
@@ -70,18 +70,18 @@
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
+  </si>
+  <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
     <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
-    <t>6036f9b3b1842f8b659b18c7</t>
-  </si>
-  <si>
-    <t>5c0e89c6c323400001e6c4a5</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -94,21 +94,21 @@
     <t>5ff8ad350d084e10f500e48a</t>
   </si>
   <si>
+    <t>60db4fde6193c50664c9c478</t>
+  </si>
+  <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
-    <t>60db4fde6193c50664c9c478</t>
-  </si>
-  <si>
-    <t>60bf9943e4e04642d4634ecc</t>
+    <t>60b322994d0b901954690036</t>
   </si>
   <si>
     <t>5e2522d6b734b47915f88275</t>
   </si>
   <si>
-    <t>60b322994d0b901954690036</t>
-  </si>
-  <si>
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>Giana</t>
   </si>
   <si>
+    <t>Jewel</t>
+  </si>
+  <si>
     <t>Colleen</t>
   </si>
   <si>
-    <t>Jewel</t>
-  </si>
-  <si>
     <t>Annes</t>
   </si>
   <si>
@@ -142,18 +142,18 @@
     <t>Khushi</t>
   </si>
   <si>
+    <t>Kellie</t>
+  </si>
+  <si>
+    <t>Bri</t>
+  </si>
+  <si>
+    <t>Shadaisia</t>
+  </si>
+  <si>
     <t>Shaniek</t>
   </si>
   <si>
-    <t>Shadaisia</t>
-  </si>
-  <si>
-    <t>Kellie</t>
-  </si>
-  <si>
-    <t>Bri</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
@@ -166,19 +166,19 @@
     <t>Drew</t>
   </si>
   <si>
+    <t>Edosagbe</t>
+  </si>
+  <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>Edosagbe</t>
-  </si>
-  <si>
-    <t>Jamarii</t>
+    <t>Brennan</t>
   </si>
   <si>
     <t>Corey</t>
-  </si>
-  <si>
-    <t>Brennan</t>
   </si>
   <si>
     <t>Masuf</t>
@@ -633,7 +633,7 @@
         <v>58</v>
       </c>
       <c r="H2">
-        <v>7.311265211180753</v>
+        <v>7.186737775649103</v>
       </c>
       <c r="I2" t="s">
         <v>60</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -668,10 +668,10 @@
         <v>58</v>
       </c>
       <c r="H3">
-        <v>6.075952185643782</v>
+        <v>6.491841461046875</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -703,10 +703,10 @@
         <v>58</v>
       </c>
       <c r="H4">
-        <v>6.068676626552405</v>
+        <v>6.098775820819761</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -738,7 +738,7 @@
         <v>58</v>
       </c>
       <c r="H5">
-        <v>5.477047804629725</v>
+        <v>5.03843188797754</v>
       </c>
       <c r="I5" t="s">
         <v>62</v>
@@ -773,7 +773,7 @@
         <v>58</v>
       </c>
       <c r="H6">
-        <v>5.249471932023906</v>
+        <v>5.020761003118488</v>
       </c>
       <c r="I6" t="s">
         <v>60</v>
@@ -808,7 +808,7 @@
         <v>58</v>
       </c>
       <c r="H7">
-        <v>4.260356005502568</v>
+        <v>4.239120605821088</v>
       </c>
       <c r="I7" t="s">
         <v>62</v>
@@ -843,7 +843,7 @@
         <v>58</v>
       </c>
       <c r="H8">
-        <v>1.260598627945096</v>
+        <v>1.248319253184411</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
@@ -878,7 +878,7 @@
         <v>58</v>
       </c>
       <c r="H9">
-        <v>1.185192640848691</v>
+        <v>1.073514296423548</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -901,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -913,10 +913,10 @@
         <v>58</v>
       </c>
       <c r="H10">
-        <v>0.3346982378612178</v>
+        <v>0.4217658868825644</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -948,7 +948,7 @@
         <v>58</v>
       </c>
       <c r="H11">
-        <v>0.26099946291021</v>
+        <v>0.4004490700212808</v>
       </c>
       <c r="I11" t="s">
         <v>61</v>
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -983,10 +983,10 @@
         <v>58</v>
       </c>
       <c r="H12">
-        <v>0.07698541627100014</v>
+        <v>0.3953773248513697</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1018,7 +1018,7 @@
         <v>58</v>
       </c>
       <c r="H13">
-        <v>0.04919117767745862</v>
+        <v>0.1805031549777598</v>
       </c>
       <c r="I13" t="s">
         <v>61</v>
@@ -1053,7 +1053,7 @@
         <v>59</v>
       </c>
       <c r="H14">
-        <v>13.19982871425305</v>
+        <v>13.04325402792447</v>
       </c>
       <c r="I14" t="s">
         <v>61</v>
@@ -1088,7 +1088,7 @@
         <v>59</v>
       </c>
       <c r="H15">
-        <v>8.081433205567341</v>
+        <v>8.342377812971202</v>
       </c>
       <c r="I15" t="s">
         <v>61</v>
@@ -1123,7 +1123,7 @@
         <v>59</v>
       </c>
       <c r="H16">
-        <v>7.048241805590385</v>
+        <v>7.489472321657063</v>
       </c>
       <c r="I16" t="s">
         <v>60</v>
@@ -1158,7 +1158,7 @@
         <v>59</v>
       </c>
       <c r="H17">
-        <v>7.000947600168775</v>
+        <v>7.219432926815826</v>
       </c>
       <c r="I17" t="s">
         <v>60</v>
@@ -1181,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
@@ -1193,10 +1193,10 @@
         <v>59</v>
       </c>
       <c r="H18">
-        <v>5.239313832273305</v>
+        <v>5.404956080902719</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1216,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -1228,7 +1228,7 @@
         <v>59</v>
       </c>
       <c r="H19">
-        <v>5.186302527479196</v>
+        <v>5.203546488046102</v>
       </c>
       <c r="I19" t="s">
         <v>61</v>
@@ -1251,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -1263,10 +1263,10 @@
         <v>59</v>
       </c>
       <c r="H20">
-        <v>5.018452747422359</v>
+        <v>5.194694186643499</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J20">
         <v>7</v>
@@ -1286,7 +1286,7 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -1298,7 +1298,7 @@
         <v>59</v>
       </c>
       <c r="H21">
-        <v>4.155549573790759</v>
+        <v>4.334666484926464</v>
       </c>
       <c r="I21" t="s">
         <v>60</v>
@@ -1321,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="H22">
-        <v>4.034175108618071</v>
+        <v>4.178693876440433</v>
       </c>
       <c r="I22" t="s">
         <v>60</v>
@@ -1368,7 +1368,7 @@
         <v>59</v>
       </c>
       <c r="H23">
-        <v>3.262000135003892</v>
+        <v>3.419194189605884</v>
       </c>
       <c r="I23" t="s">
         <v>62</v>
@@ -1403,7 +1403,7 @@
         <v>59</v>
       </c>
       <c r="H24">
-        <v>2.30063950806506</v>
+        <v>2.385885516067507</v>
       </c>
       <c r="I24" t="s">
         <v>60</v>
@@ -1438,7 +1438,7 @@
         <v>59</v>
       </c>
       <c r="H25">
-        <v>2.244526961475056</v>
+        <v>2.223286854337817</v>
       </c>
       <c r="I25" t="s">
         <v>61</v>

--- a/_static/global/binaryrankings/workers_rank_re.xlsx
+++ b/_static/global/binaryrankings/workers_rank_re.xlsx
@@ -52,12 +52,12 @@
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
+    <t>5f2c1a97a6809c060fec8820</t>
+  </si>
+  <si>
     <t>60a71d27a66fac796ad4de6f</t>
   </si>
   <si>
-    <t>5f2c1a97a6809c060fec8820</t>
-  </si>
-  <si>
     <t>60186dc2cc1aa8103499603a</t>
   </si>
   <si>
@@ -88,12 +88,12 @@
     <t>60778ed0fde3e9c3a96f1d11</t>
   </si>
   <si>
+    <t>60ba8ba51a5e0a105396888a</t>
+  </si>
+  <si>
     <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
-    <t>60ba8ba51a5e0a105396888a</t>
-  </si>
-  <si>
     <t>5eeaa065c7acf61c4322f6d9</t>
   </si>
   <si>
@@ -103,12 +103,12 @@
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>5e706891c396cc64388ef760</t>
+  </si>
+  <si>
     <t>5e0adc8f4cac6834756db412</t>
   </si>
   <si>
-    <t>5e706891c396cc64388ef760</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>Aalap</t>
   </si>
   <si>
+    <t>Maggie</t>
+  </si>
+  <si>
     <t>Jennifer</t>
   </si>
   <si>
-    <t>Maggie</t>
-  </si>
-  <si>
     <t>Emily</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>Melissa</t>
   </si>
   <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
     <t>Valeria</t>
   </si>
   <si>
-    <t>Alfredo</t>
-  </si>
-  <si>
     <t>Yonifredy</t>
   </si>
   <si>
@@ -175,10 +175,10 @@
     <t>Juan</t>
   </si>
   <si>
+    <t>Maria</t>
+  </si>
+  <si>
     <t>Mary</t>
-  </si>
-  <si>
-    <t>Maria</t>
   </si>
   <si>
     <t>Josue</t>
@@ -627,7 +627,7 @@
         <v>58</v>
       </c>
       <c r="H2">
-        <v>11.45740717551576</v>
+        <v>11.35146450363736</v>
       </c>
       <c r="I2" t="s">
         <v>60</v>
@@ -662,7 +662,7 @@
         <v>59</v>
       </c>
       <c r="H3">
-        <v>10.08421220545006</v>
+        <v>10.46509312749224</v>
       </c>
       <c r="I3" t="s">
         <v>60</v>
@@ -685,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -697,7 +697,7 @@
         <v>58</v>
       </c>
       <c r="H4">
-        <v>8.474440037169567</v>
+        <v>8.345780257992518</v>
       </c>
       <c r="I4" t="s">
         <v>60</v>
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -732,7 +732,7 @@
         <v>58</v>
       </c>
       <c r="H5">
-        <v>8.469079889133782</v>
+        <v>8.335815743434177</v>
       </c>
       <c r="I5" t="s">
         <v>60</v>
@@ -767,7 +767,7 @@
         <v>58</v>
       </c>
       <c r="H6">
-        <v>7.167398355129854</v>
+        <v>7.149319585641714</v>
       </c>
       <c r="I6" t="s">
         <v>60</v>
@@ -802,7 +802,7 @@
         <v>58</v>
       </c>
       <c r="H7">
-        <v>6.194924391488313</v>
+        <v>6.428054772178267</v>
       </c>
       <c r="I7" t="s">
         <v>60</v>
@@ -837,7 +837,7 @@
         <v>59</v>
       </c>
       <c r="H8">
-        <v>6.053014121671316</v>
+        <v>6.387792560901622</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
@@ -872,7 +872,7 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>5.405704693608066</v>
+        <v>5.358859522459975</v>
       </c>
       <c r="I9" t="s">
         <v>60</v>
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="H10">
-        <v>5.190617474046819</v>
+        <v>5.046880051605173</v>
       </c>
       <c r="I10" t="s">
         <v>60</v>
@@ -942,7 +942,7 @@
         <v>59</v>
       </c>
       <c r="H11">
-        <v>4.0828279198773</v>
+        <v>4.123973324417245</v>
       </c>
       <c r="I11" t="s">
         <v>60</v>
@@ -977,7 +977,7 @@
         <v>59</v>
       </c>
       <c r="H12">
-        <v>2.154970194355574</v>
+        <v>2.400210451344222</v>
       </c>
       <c r="I12" t="s">
         <v>60</v>
@@ -1012,7 +1012,7 @@
         <v>59</v>
       </c>
       <c r="H13">
-        <v>0.2602112850569155</v>
+        <v>0.1240641252646651</v>
       </c>
       <c r="I13" t="s">
         <v>60</v>
@@ -1047,7 +1047,7 @@
         <v>58</v>
       </c>
       <c r="H14">
-        <v>8.316648944792245</v>
+        <v>8.43712372573634</v>
       </c>
       <c r="I14" t="s">
         <v>61</v>
@@ -1082,7 +1082,7 @@
         <v>58</v>
       </c>
       <c r="H15">
-        <v>8.023344841524992</v>
+        <v>8.085171174491482</v>
       </c>
       <c r="I15" t="s">
         <v>61</v>
@@ -1105,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -1114,10 +1114,10 @@
         <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H16">
-        <v>7.429443214079729</v>
+        <v>7.483015296297952</v>
       </c>
       <c r="I16" t="s">
         <v>61</v>
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -1149,10 +1149,10 @@
         <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17">
-        <v>7.094459853851288</v>
+        <v>7.18543091573438</v>
       </c>
       <c r="I17" t="s">
         <v>61</v>
@@ -1187,7 +1187,7 @@
         <v>59</v>
       </c>
       <c r="H18">
-        <v>6.304187637973969</v>
+        <v>6.391489871176138</v>
       </c>
       <c r="I18" t="s">
         <v>61</v>
@@ -1222,7 +1222,7 @@
         <v>59</v>
       </c>
       <c r="H19">
-        <v>6.19077550199683</v>
+        <v>6.387011644639443</v>
       </c>
       <c r="I19" t="s">
         <v>61</v>
@@ -1257,7 +1257,7 @@
         <v>59</v>
       </c>
       <c r="H20">
-        <v>5.065205973220809</v>
+        <v>5.012348235563821</v>
       </c>
       <c r="I20" t="s">
         <v>61</v>
@@ -1280,7 +1280,7 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -1292,7 +1292,7 @@
         <v>58</v>
       </c>
       <c r="H21">
-        <v>3.358111939047832</v>
+        <v>3.142757349846526</v>
       </c>
       <c r="I21" t="s">
         <v>61</v>
@@ -1315,7 +1315,7 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -1327,7 +1327,7 @@
         <v>58</v>
       </c>
       <c r="H22">
-        <v>3.344821734808749</v>
+        <v>3.037402404511541</v>
       </c>
       <c r="I22" t="s">
         <v>61</v>
@@ -1362,7 +1362,7 @@
         <v>59</v>
       </c>
       <c r="H23">
-        <v>2.475630392065158</v>
+        <v>2.344227293246886</v>
       </c>
       <c r="I23" t="s">
         <v>61</v>
@@ -1397,7 +1397,7 @@
         <v>59</v>
       </c>
       <c r="H24">
-        <v>1.281029176420817</v>
+        <v>1.337899327810482</v>
       </c>
       <c r="I24" t="s">
         <v>61</v>
@@ -1432,7 +1432,7 @@
         <v>59</v>
       </c>
       <c r="H25">
-        <v>0.379747773547242</v>
+        <v>0.002543171126171584</v>
       </c>
       <c r="I25" t="s">
         <v>61</v>

--- a/_static/global/binaryrankings/workers_rank_re.xlsx
+++ b/_static/global/binaryrankings/workers_rank_re.xlsx
@@ -49,18 +49,18 @@
     <t>60bfcf5805c5ae12a546f9f3</t>
   </si>
   <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
     <t>60b45e9961dd412bfb6780f8</t>
   </si>
   <si>
-    <t>5c5882fc5bfe7600011197cb</t>
+    <t>5e96194b0a9fe909389e9f7b</t>
   </si>
   <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
-    <t>5e96194b0a9fe909389e9f7b</t>
-  </si>
-  <si>
     <t>60c0e5899d387663c07eb3a4</t>
   </si>
   <si>
@@ -76,12 +76,12 @@
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
     <t>60d5775a99b502eec8cf56b4</t>
   </si>
   <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -94,45 +94,45 @@
     <t>5ff8ad350d084e10f500e48a</t>
   </si>
   <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
+    <t>5dd671942b033b5ec8bc97b4</t>
+  </si>
+  <si>
     <t>60db4fde6193c50664c9c478</t>
   </si>
   <si>
-    <t>60bf9943e4e04642d4634ecc</t>
-  </si>
-  <si>
-    <t>5dd671942b033b5ec8bc97b4</t>
+    <t>5e2522d6b734b47915f88275</t>
   </si>
   <si>
     <t>60b322994d0b901954690036</t>
   </si>
   <si>
-    <t>5e2522d6b734b47915f88275</t>
-  </si>
-  <si>
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
+    <t>6097b95056caf5ebb2720002</t>
+  </si>
+  <si>
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
-    <t>6097b95056caf5ebb2720002</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
+    <t>Colleen</t>
+  </si>
+  <si>
     <t>Jewel</t>
   </si>
   <si>
-    <t>Colleen</t>
+    <t>Tina</t>
   </si>
   <si>
     <t>Annes</t>
   </si>
   <si>
-    <t>Tina</t>
-  </si>
-  <si>
     <t>Nansi</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Bri</t>
   </si>
   <si>
+    <t>Shaniek</t>
+  </si>
+  <si>
     <t>Shadaisia</t>
   </si>
   <si>
-    <t>Shaniek</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
@@ -166,28 +166,28 @@
     <t>Drew</t>
   </si>
   <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
     <t>Edosagbe</t>
   </si>
   <si>
-    <t>Jamarii</t>
-  </si>
-  <si>
-    <t>Juan</t>
+    <t>Corey</t>
   </si>
   <si>
     <t>Brennan</t>
   </si>
   <si>
-    <t>Corey</t>
-  </si>
-  <si>
     <t>Masuf</t>
   </si>
   <si>
+    <t>Damian</t>
+  </si>
+  <si>
     <t>Eli</t>
-  </si>
-  <si>
-    <t>Damian</t>
   </si>
   <si>
     <t>female</t>
@@ -633,7 +633,7 @@
         <v>58</v>
       </c>
       <c r="H2">
-        <v>7.186737775649103</v>
+        <v>7.39000491208574</v>
       </c>
       <c r="I2" t="s">
         <v>60</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -668,10 +668,10 @@
         <v>58</v>
       </c>
       <c r="H3">
-        <v>6.491841461046875</v>
+        <v>6.091303748649244</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -703,10 +703,10 @@
         <v>58</v>
       </c>
       <c r="H4">
-        <v>6.098775820819761</v>
+        <v>6.07244745832581</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -726,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -738,10 +738,10 @@
         <v>58</v>
       </c>
       <c r="H5">
-        <v>5.03843188797754</v>
+        <v>5.476255900907384</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -773,10 +773,10 @@
         <v>58</v>
       </c>
       <c r="H6">
-        <v>5.020761003118488</v>
+        <v>5.199586145078674</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -808,7 +808,7 @@
         <v>58</v>
       </c>
       <c r="H7">
-        <v>4.239120605821088</v>
+        <v>4.182434273974512</v>
       </c>
       <c r="I7" t="s">
         <v>62</v>
@@ -843,7 +843,7 @@
         <v>58</v>
       </c>
       <c r="H8">
-        <v>1.248319253184411</v>
+        <v>1.405244066240008</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
@@ -878,7 +878,7 @@
         <v>58</v>
       </c>
       <c r="H9">
-        <v>1.073514296423548</v>
+        <v>1.285989741820513</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -913,7 +913,7 @@
         <v>58</v>
       </c>
       <c r="H10">
-        <v>0.4217658868825644</v>
+        <v>0.4301310047900727</v>
       </c>
       <c r="I10" t="s">
         <v>60</v>
@@ -948,7 +948,7 @@
         <v>58</v>
       </c>
       <c r="H11">
-        <v>0.4004490700212808</v>
+        <v>0.3677338533072753</v>
       </c>
       <c r="I11" t="s">
         <v>61</v>
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -983,7 +983,7 @@
         <v>58</v>
       </c>
       <c r="H12">
-        <v>0.3953773248513697</v>
+        <v>0.2397686769137523</v>
       </c>
       <c r="I12" t="s">
         <v>61</v>
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1018,7 +1018,7 @@
         <v>58</v>
       </c>
       <c r="H13">
-        <v>0.1805031549777598</v>
+        <v>0.2362855029629706</v>
       </c>
       <c r="I13" t="s">
         <v>61</v>
@@ -1053,7 +1053,7 @@
         <v>59</v>
       </c>
       <c r="H14">
-        <v>13.04325402792447</v>
+        <v>13.08405170480421</v>
       </c>
       <c r="I14" t="s">
         <v>61</v>
@@ -1088,7 +1088,7 @@
         <v>59</v>
       </c>
       <c r="H15">
-        <v>8.342377812971202</v>
+        <v>8.317598354541474</v>
       </c>
       <c r="I15" t="s">
         <v>61</v>
@@ -1123,7 +1123,7 @@
         <v>59</v>
       </c>
       <c r="H16">
-        <v>7.489472321657063</v>
+        <v>7.382070019746715</v>
       </c>
       <c r="I16" t="s">
         <v>60</v>
@@ -1158,7 +1158,7 @@
         <v>59</v>
       </c>
       <c r="H17">
-        <v>7.219432926815826</v>
+        <v>7.27978505289396</v>
       </c>
       <c r="I17" t="s">
         <v>60</v>
@@ -1181,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
@@ -1193,7 +1193,7 @@
         <v>59</v>
       </c>
       <c r="H18">
-        <v>5.404956080902719</v>
+        <v>5.430038462157364</v>
       </c>
       <c r="I18" t="s">
         <v>61</v>
@@ -1216,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -1228,10 +1228,10 @@
         <v>59</v>
       </c>
       <c r="H19">
-        <v>5.203546488046102</v>
+        <v>5.411470426993446</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J19">
         <v>6</v>
@@ -1251,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -1263,10 +1263,10 @@
         <v>59</v>
       </c>
       <c r="H20">
-        <v>5.194694186643499</v>
+        <v>5.05463621270477</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J20">
         <v>7</v>
@@ -1286,7 +1286,7 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -1298,7 +1298,7 @@
         <v>59</v>
       </c>
       <c r="H21">
-        <v>4.334666484926464</v>
+        <v>4.430868679986358</v>
       </c>
       <c r="I21" t="s">
         <v>60</v>
@@ -1321,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="H22">
-        <v>4.178693876440433</v>
+        <v>4.412626648038093</v>
       </c>
       <c r="I22" t="s">
         <v>60</v>
@@ -1368,7 +1368,7 @@
         <v>59</v>
       </c>
       <c r="H23">
-        <v>3.419194189605884</v>
+        <v>3.327095999247362</v>
       </c>
       <c r="I23" t="s">
         <v>62</v>
@@ -1391,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
         <v>32</v>
@@ -1403,10 +1403,10 @@
         <v>59</v>
       </c>
       <c r="H24">
-        <v>2.385885516067507</v>
+        <v>2.26493513038394</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J24">
         <v>11</v>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -1438,10 +1438,10 @@
         <v>59</v>
       </c>
       <c r="H25">
-        <v>2.223286854337817</v>
+        <v>2.202334476874346</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J25">
         <v>12</v>

--- a/_static/global/binaryrankings/workers_rank_re.xlsx
+++ b/_static/global/binaryrankings/workers_rank_re.xlsx
@@ -70,18 +70,18 @@
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
+  </si>
+  <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
     <t>6036f9b3b1842f8b659b18c7</t>
   </si>
   <si>
-    <t>5c0e89c6c323400001e6c4a5</t>
-  </si>
-  <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -97,12 +97,12 @@
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
+    <t>60db4fde6193c50664c9c478</t>
+  </si>
+  <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
-    <t>60db4fde6193c50664c9c478</t>
-  </si>
-  <si>
     <t>5e2522d6b734b47915f88275</t>
   </si>
   <si>
@@ -112,12 +112,12 @@
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
+    <t>60b83826821417f8e484a207</t>
+  </si>
+  <si>
     <t>6097b95056caf5ebb2720002</t>
   </si>
   <si>
-    <t>60b83826821417f8e484a207</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -142,18 +142,18 @@
     <t>Khushi</t>
   </si>
   <si>
+    <t>Bri</t>
+  </si>
+  <si>
+    <t>Shadaisia</t>
+  </si>
+  <si>
+    <t>Shaniek</t>
+  </si>
+  <si>
     <t>Kellie</t>
   </si>
   <si>
-    <t>Bri</t>
-  </si>
-  <si>
-    <t>Shaniek</t>
-  </si>
-  <si>
-    <t>Shadaisia</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
@@ -169,12 +169,12 @@
     <t>Jamarii</t>
   </si>
   <si>
+    <t>Edosagbe</t>
+  </si>
+  <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>Edosagbe</t>
-  </si>
-  <si>
     <t>Corey</t>
   </si>
   <si>
@@ -184,10 +184,10 @@
     <t>Masuf</t>
   </si>
   <si>
+    <t>Eli</t>
+  </si>
+  <si>
     <t>Damian</t>
-  </si>
-  <si>
-    <t>Eli</t>
   </si>
   <si>
     <t>female</t>
@@ -633,7 +633,7 @@
         <v>58</v>
       </c>
       <c r="H2">
-        <v>7.39000491208574</v>
+        <v>7.326165517881154</v>
       </c>
       <c r="I2" t="s">
         <v>60</v>
@@ -668,7 +668,7 @@
         <v>58</v>
       </c>
       <c r="H3">
-        <v>6.091303748649244</v>
+        <v>6.035906762210042</v>
       </c>
       <c r="I3" t="s">
         <v>60</v>
@@ -703,7 +703,7 @@
         <v>58</v>
       </c>
       <c r="H4">
-        <v>6.07244745832581</v>
+        <v>6.027117691378983</v>
       </c>
       <c r="I4" t="s">
         <v>61</v>
@@ -738,7 +738,7 @@
         <v>58</v>
       </c>
       <c r="H5">
-        <v>5.476255900907384</v>
+        <v>5.244593786151905</v>
       </c>
       <c r="I5" t="s">
         <v>60</v>
@@ -773,7 +773,7 @@
         <v>58</v>
       </c>
       <c r="H6">
-        <v>5.199586145078674</v>
+        <v>5.10415078822819</v>
       </c>
       <c r="I6" t="s">
         <v>62</v>
@@ -808,7 +808,7 @@
         <v>58</v>
       </c>
       <c r="H7">
-        <v>4.182434273974512</v>
+        <v>4.080915110249717</v>
       </c>
       <c r="I7" t="s">
         <v>62</v>
@@ -843,7 +843,7 @@
         <v>58</v>
       </c>
       <c r="H8">
-        <v>1.405244066240008</v>
+        <v>1.127328457611293</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
@@ -878,7 +878,7 @@
         <v>58</v>
       </c>
       <c r="H9">
-        <v>1.285989741820513</v>
+        <v>1.090887131911884</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -901,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -913,10 +913,10 @@
         <v>58</v>
       </c>
       <c r="H10">
-        <v>0.4301310047900727</v>
+        <v>0.434968325099591</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -948,7 +948,7 @@
         <v>58</v>
       </c>
       <c r="H11">
-        <v>0.3677338533072753</v>
+        <v>0.2911261319324809</v>
       </c>
       <c r="I11" t="s">
         <v>61</v>
@@ -983,7 +983,7 @@
         <v>58</v>
       </c>
       <c r="H12">
-        <v>0.2397686769137523</v>
+        <v>0.2519625011376062</v>
       </c>
       <c r="I12" t="s">
         <v>61</v>
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1018,10 +1018,10 @@
         <v>58</v>
       </c>
       <c r="H13">
-        <v>0.2362855029629706</v>
+        <v>0.100228771449971</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -1053,7 +1053,7 @@
         <v>59</v>
       </c>
       <c r="H14">
-        <v>13.08405170480421</v>
+        <v>13.01215981117364</v>
       </c>
       <c r="I14" t="s">
         <v>61</v>
@@ -1088,7 +1088,7 @@
         <v>59</v>
       </c>
       <c r="H15">
-        <v>8.317598354541474</v>
+        <v>8.480054693822751</v>
       </c>
       <c r="I15" t="s">
         <v>61</v>
@@ -1123,7 +1123,7 @@
         <v>59</v>
       </c>
       <c r="H16">
-        <v>7.382070019746715</v>
+        <v>7.476982114631664</v>
       </c>
       <c r="I16" t="s">
         <v>60</v>
@@ -1158,7 +1158,7 @@
         <v>59</v>
       </c>
       <c r="H17">
-        <v>7.27978505289396</v>
+        <v>7.283504847855609</v>
       </c>
       <c r="I17" t="s">
         <v>60</v>
@@ -1193,7 +1193,7 @@
         <v>59</v>
       </c>
       <c r="H18">
-        <v>5.430038462157364</v>
+        <v>5.288466015748947</v>
       </c>
       <c r="I18" t="s">
         <v>61</v>
@@ -1216,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -1228,10 +1228,10 @@
         <v>59</v>
       </c>
       <c r="H19">
-        <v>5.411470426993446</v>
+        <v>5.276213646677543</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J19">
         <v>6</v>
@@ -1251,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -1263,10 +1263,10 @@
         <v>59</v>
       </c>
       <c r="H20">
-        <v>5.05463621270477</v>
+        <v>5.00143092683078</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J20">
         <v>7</v>
@@ -1298,7 +1298,7 @@
         <v>59</v>
       </c>
       <c r="H21">
-        <v>4.430868679986358</v>
+        <v>4.275591191179309</v>
       </c>
       <c r="I21" t="s">
         <v>60</v>
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="H22">
-        <v>4.412626648038093</v>
+        <v>4.151918691359521</v>
       </c>
       <c r="I22" t="s">
         <v>60</v>
@@ -1368,7 +1368,7 @@
         <v>59</v>
       </c>
       <c r="H23">
-        <v>3.327095999247362</v>
+        <v>3.329972696343859</v>
       </c>
       <c r="I23" t="s">
         <v>62</v>
@@ -1391,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
         <v>32</v>
@@ -1403,10 +1403,10 @@
         <v>59</v>
       </c>
       <c r="H24">
-        <v>2.26493513038394</v>
+        <v>2.177627561568944</v>
       </c>
       <c r="I24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J24">
         <v>11</v>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -1438,10 +1438,10 @@
         <v>59</v>
       </c>
       <c r="H25">
-        <v>2.202334476874346</v>
+        <v>2.103275006361129</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J25">
         <v>12</v>

--- a/_static/global/binaryrankings/workers_rank_re.xlsx
+++ b/_static/global/binaryrankings/workers_rank_re.xlsx
@@ -52,12 +52,12 @@
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
+    <t>60a71d27a66fac796ad4de6f</t>
+  </si>
+  <si>
     <t>5f2c1a97a6809c060fec8820</t>
   </si>
   <si>
-    <t>60a71d27a66fac796ad4de6f</t>
-  </si>
-  <si>
     <t>60186dc2cc1aa8103499603a</t>
   </si>
   <si>
@@ -88,12 +88,12 @@
     <t>60778ed0fde3e9c3a96f1d11</t>
   </si>
   <si>
+    <t>5f0142aa1eb1e528e7abce50</t>
+  </si>
+  <si>
     <t>60ba8ba51a5e0a105396888a</t>
   </si>
   <si>
-    <t>5f0142aa1eb1e528e7abce50</t>
-  </si>
-  <si>
     <t>5eeaa065c7acf61c4322f6d9</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>Aalap</t>
   </si>
   <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
     <t>Maggie</t>
   </si>
   <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
     <t>Emily</t>
   </si>
   <si>
@@ -160,10 +160,10 @@
     <t>Melissa</t>
   </si>
   <si>
+    <t>Valeria</t>
+  </si>
+  <si>
     <t>Alfredo</t>
-  </si>
-  <si>
-    <t>Valeria</t>
   </si>
   <si>
     <t>Yonifredy</t>
@@ -627,7 +627,7 @@
         <v>58</v>
       </c>
       <c r="H2">
-        <v>11.35146450363736</v>
+        <v>11.20066658138457</v>
       </c>
       <c r="I2" t="s">
         <v>60</v>
@@ -662,7 +662,7 @@
         <v>59</v>
       </c>
       <c r="H3">
-        <v>10.46509312749224</v>
+        <v>10.04930818106606</v>
       </c>
       <c r="I3" t="s">
         <v>60</v>
@@ -685,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -697,7 +697,7 @@
         <v>58</v>
       </c>
       <c r="H4">
-        <v>8.345780257992518</v>
+        <v>8.248826543614417</v>
       </c>
       <c r="I4" t="s">
         <v>60</v>
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -732,7 +732,7 @@
         <v>58</v>
       </c>
       <c r="H5">
-        <v>8.335815743434177</v>
+        <v>8.220568487397175</v>
       </c>
       <c r="I5" t="s">
         <v>60</v>
@@ -767,7 +767,7 @@
         <v>58</v>
       </c>
       <c r="H6">
-        <v>7.149319585641714</v>
+        <v>7.249275200471399</v>
       </c>
       <c r="I6" t="s">
         <v>60</v>
@@ -802,7 +802,7 @@
         <v>58</v>
       </c>
       <c r="H7">
-        <v>6.428054772178267</v>
+        <v>6.455977501408833</v>
       </c>
       <c r="I7" t="s">
         <v>60</v>
@@ -837,7 +837,7 @@
         <v>59</v>
       </c>
       <c r="H8">
-        <v>6.387792560901622</v>
+        <v>6.103291068476004</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
@@ -872,7 +872,7 @@
         <v>59</v>
       </c>
       <c r="H9">
-        <v>5.358859522459975</v>
+        <v>5.414954327138534</v>
       </c>
       <c r="I9" t="s">
         <v>60</v>
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="H10">
-        <v>5.046880051605173</v>
+        <v>5.320316808829586</v>
       </c>
       <c r="I10" t="s">
         <v>60</v>
@@ -942,7 +942,7 @@
         <v>59</v>
       </c>
       <c r="H11">
-        <v>4.123973324417245</v>
+        <v>4.27658389358938</v>
       </c>
       <c r="I11" t="s">
         <v>60</v>
@@ -977,7 +977,7 @@
         <v>59</v>
       </c>
       <c r="H12">
-        <v>2.400210451344222</v>
+        <v>2.210786006685201</v>
       </c>
       <c r="I12" t="s">
         <v>60</v>
@@ -1012,7 +1012,7 @@
         <v>59</v>
       </c>
       <c r="H13">
-        <v>0.1240641252646651</v>
+        <v>0.4860780824965417</v>
       </c>
       <c r="I13" t="s">
         <v>60</v>
@@ -1047,7 +1047,7 @@
         <v>58</v>
       </c>
       <c r="H14">
-        <v>8.43712372573634</v>
+        <v>8.320630269032609</v>
       </c>
       <c r="I14" t="s">
         <v>61</v>
@@ -1082,7 +1082,7 @@
         <v>58</v>
       </c>
       <c r="H15">
-        <v>8.085171174491482</v>
+        <v>8.220999680247353</v>
       </c>
       <c r="I15" t="s">
         <v>61</v>
@@ -1105,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -1114,10 +1114,10 @@
         <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16">
-        <v>7.483015296297952</v>
+        <v>7.392521412365356</v>
       </c>
       <c r="I16" t="s">
         <v>61</v>
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -1149,10 +1149,10 @@
         <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17">
-        <v>7.18543091573438</v>
+        <v>7.195758649836163</v>
       </c>
       <c r="I17" t="s">
         <v>61</v>
@@ -1187,7 +1187,7 @@
         <v>59</v>
       </c>
       <c r="H18">
-        <v>6.391489871176138</v>
+        <v>6.375156838433768</v>
       </c>
       <c r="I18" t="s">
         <v>61</v>
@@ -1222,7 +1222,7 @@
         <v>59</v>
       </c>
       <c r="H19">
-        <v>6.387011644639443</v>
+        <v>6.167571326566887</v>
       </c>
       <c r="I19" t="s">
         <v>61</v>
@@ -1257,7 +1257,7 @@
         <v>59</v>
       </c>
       <c r="H20">
-        <v>5.012348235563821</v>
+        <v>5.182177952706946</v>
       </c>
       <c r="I20" t="s">
         <v>61</v>
@@ -1292,7 +1292,7 @@
         <v>58</v>
       </c>
       <c r="H21">
-        <v>3.142757349846526</v>
+        <v>3.34653025316331</v>
       </c>
       <c r="I21" t="s">
         <v>61</v>
@@ -1327,7 +1327,7 @@
         <v>58</v>
       </c>
       <c r="H22">
-        <v>3.037402404511541</v>
+        <v>3.069907791126405</v>
       </c>
       <c r="I22" t="s">
         <v>61</v>
@@ -1362,7 +1362,7 @@
         <v>59</v>
       </c>
       <c r="H23">
-        <v>2.344227293246886</v>
+        <v>2.051855092120411</v>
       </c>
       <c r="I23" t="s">
         <v>61</v>
@@ -1397,7 +1397,7 @@
         <v>59</v>
       </c>
       <c r="H24">
-        <v>1.337899327810482</v>
+        <v>1.401088072767352</v>
       </c>
       <c r="I24" t="s">
         <v>61</v>
@@ -1432,7 +1432,7 @@
         <v>59</v>
       </c>
       <c r="H25">
-        <v>0.002543171126171584</v>
+        <v>0.363970251729259</v>
       </c>
       <c r="I25" t="s">
         <v>61</v>

--- a/_static/global/binaryrankings/workers_rank_re.xlsx
+++ b/_static/global/binaryrankings/workers_rank_re.xlsx
@@ -64,24 +64,24 @@
     <t>60c0e5899d387663c07eb3a4</t>
   </si>
   <si>
+    <t>608b14a312c099ac00b721b6</t>
+  </si>
+  <si>
     <t>6077db0613ce87b4a62a78f9</t>
   </si>
   <si>
-    <t>608b14a312c099ac00b721b6</t>
-  </si>
-  <si>
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
     <t>60d5775a99b502eec8cf56b4</t>
   </si>
   <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
-    <t>6036f9b3b1842f8b659b18c7</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -112,12 +112,12 @@
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
+    <t>6097b95056caf5ebb2720002</t>
+  </si>
+  <si>
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
-    <t>6097b95056caf5ebb2720002</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -136,24 +136,24 @@
     <t>Nansi</t>
   </si>
   <si>
+    <t>Khushi</t>
+  </si>
+  <si>
     <t>Lori</t>
   </si>
   <si>
-    <t>Khushi</t>
-  </si>
-  <si>
     <t>Bri</t>
   </si>
   <si>
+    <t>Kellie</t>
+  </si>
+  <si>
+    <t>Shaniek</t>
+  </si>
+  <si>
     <t>Shadaisia</t>
   </si>
   <si>
-    <t>Shaniek</t>
-  </si>
-  <si>
-    <t>Kellie</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
@@ -184,10 +184,10 @@
     <t>Masuf</t>
   </si>
   <si>
+    <t>Damian</t>
+  </si>
+  <si>
     <t>Eli</t>
-  </si>
-  <si>
-    <t>Damian</t>
   </si>
   <si>
     <t>female</t>
@@ -633,7 +633,7 @@
         <v>58</v>
       </c>
       <c r="H2">
-        <v>7.326165517881154</v>
+        <v>7.066021659105897</v>
       </c>
       <c r="I2" t="s">
         <v>60</v>
@@ -668,7 +668,7 @@
         <v>58</v>
       </c>
       <c r="H3">
-        <v>6.035906762210042</v>
+        <v>6.08779256618992</v>
       </c>
       <c r="I3" t="s">
         <v>60</v>
@@ -703,7 +703,7 @@
         <v>58</v>
       </c>
       <c r="H4">
-        <v>6.027117691378983</v>
+        <v>6.057214823784022</v>
       </c>
       <c r="I4" t="s">
         <v>61</v>
@@ -738,7 +738,7 @@
         <v>58</v>
       </c>
       <c r="H5">
-        <v>5.244593786151905</v>
+        <v>5.336243183830646</v>
       </c>
       <c r="I5" t="s">
         <v>60</v>
@@ -773,7 +773,7 @@
         <v>58</v>
       </c>
       <c r="H6">
-        <v>5.10415078822819</v>
+        <v>5.23161678505255</v>
       </c>
       <c r="I6" t="s">
         <v>62</v>
@@ -808,7 +808,7 @@
         <v>58</v>
       </c>
       <c r="H7">
-        <v>4.080915110249717</v>
+        <v>4.436670416417346</v>
       </c>
       <c r="I7" t="s">
         <v>62</v>
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -843,10 +843,10 @@
         <v>58</v>
       </c>
       <c r="H8">
-        <v>1.127328457611293</v>
+        <v>1.23052797168464</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -866,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -878,10 +878,10 @@
         <v>58</v>
       </c>
       <c r="H9">
-        <v>1.090887131911884</v>
+        <v>1.071012198534924</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -913,7 +913,7 @@
         <v>58</v>
       </c>
       <c r="H10">
-        <v>0.434968325099591</v>
+        <v>0.2802740219446506</v>
       </c>
       <c r="I10" t="s">
         <v>61</v>
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -948,10 +948,10 @@
         <v>58</v>
       </c>
       <c r="H11">
-        <v>0.2911261319324809</v>
+        <v>0.2177540011877876</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -983,7 +983,7 @@
         <v>58</v>
       </c>
       <c r="H12">
-        <v>0.2519625011376062</v>
+        <v>0.2177006013509487</v>
       </c>
       <c r="I12" t="s">
         <v>61</v>
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1018,10 +1018,10 @@
         <v>58</v>
       </c>
       <c r="H13">
-        <v>0.100228771449971</v>
+        <v>0.1591053476746944</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -1053,7 +1053,7 @@
         <v>59</v>
       </c>
       <c r="H14">
-        <v>13.01215981117364</v>
+        <v>13.29683150174694</v>
       </c>
       <c r="I14" t="s">
         <v>61</v>
@@ -1088,7 +1088,7 @@
         <v>59</v>
       </c>
       <c r="H15">
-        <v>8.480054693822751</v>
+        <v>8.442021786703412</v>
       </c>
       <c r="I15" t="s">
         <v>61</v>
@@ -1123,7 +1123,7 @@
         <v>59</v>
       </c>
       <c r="H16">
-        <v>7.476982114631664</v>
+        <v>7.404702027677391</v>
       </c>
       <c r="I16" t="s">
         <v>60</v>
@@ -1158,7 +1158,7 @@
         <v>59</v>
       </c>
       <c r="H17">
-        <v>7.283504847855609</v>
+        <v>7.160622382233508</v>
       </c>
       <c r="I17" t="s">
         <v>60</v>
@@ -1193,7 +1193,7 @@
         <v>59</v>
       </c>
       <c r="H18">
-        <v>5.288466015748947</v>
+        <v>5.402452916932003</v>
       </c>
       <c r="I18" t="s">
         <v>61</v>
@@ -1228,7 +1228,7 @@
         <v>59</v>
       </c>
       <c r="H19">
-        <v>5.276213646677543</v>
+        <v>5.297461556733766</v>
       </c>
       <c r="I19" t="s">
         <v>61</v>
@@ -1263,7 +1263,7 @@
         <v>59</v>
       </c>
       <c r="H20">
-        <v>5.00143092683078</v>
+        <v>5.132600155139131</v>
       </c>
       <c r="I20" t="s">
         <v>63</v>
@@ -1298,7 +1298,7 @@
         <v>59</v>
       </c>
       <c r="H21">
-        <v>4.275591191179309</v>
+        <v>4.390731964014523</v>
       </c>
       <c r="I21" t="s">
         <v>60</v>
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="H22">
-        <v>4.151918691359521</v>
+        <v>4.389711251129868</v>
       </c>
       <c r="I22" t="s">
         <v>60</v>
@@ -1368,7 +1368,7 @@
         <v>59</v>
       </c>
       <c r="H23">
-        <v>3.329972696343859</v>
+        <v>3.29245665633912</v>
       </c>
       <c r="I23" t="s">
         <v>62</v>
@@ -1391,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
         <v>32</v>
@@ -1403,10 +1403,10 @@
         <v>59</v>
       </c>
       <c r="H24">
-        <v>2.177627561568944</v>
+        <v>2.097423229951403</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J24">
         <v>11</v>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -1438,10 +1438,10 @@
         <v>59</v>
       </c>
       <c r="H25">
-        <v>2.103275006361129</v>
+        <v>2.005455606839798</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J25">
         <v>12</v>
